--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Insl5-Rxfp4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Insl5-Rxfp4.xlsx
@@ -76,25 +76,25 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
+    <t>Insl5</t>
+  </si>
+  <si>
+    <t>Rxfp4</t>
+  </si>
+  <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Insl5</t>
-  </si>
-  <si>
-    <t>Rxfp4</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -540,13 +540,13 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.1238755</v>
+        <v>0.140313</v>
       </c>
       <c r="H2">
-        <v>0.247751</v>
+        <v>0.420939</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.736487</v>
+        <v>6.2878035</v>
       </c>
       <c r="N2">
-        <v>15.472974</v>
+        <v>12.575607</v>
       </c>
       <c r="O2">
-        <v>0.3070217579440996</v>
+        <v>0.4295541170219724</v>
       </c>
       <c r="P2">
-        <v>0.2544311262022274</v>
+        <v>0.3581429706649357</v>
       </c>
       <c r="Q2">
-        <v>0.9583611953685002</v>
+        <v>0.8822605724954999</v>
       </c>
       <c r="R2">
-        <v>3.833444781474001</v>
+        <v>5.293563434973</v>
       </c>
       <c r="S2">
-        <v>0.3070217579440996</v>
+        <v>0.4295541170219724</v>
       </c>
       <c r="T2">
-        <v>0.2544311262022274</v>
+        <v>0.3581429706649357</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,13 +602,13 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.1238755</v>
+        <v>0.140313</v>
       </c>
       <c r="H3">
-        <v>0.247751</v>
+        <v>0.420939</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.688011333333334</v>
+        <v>1.688011333333333</v>
       </c>
       <c r="N3">
-        <v>5.064034</v>
+        <v>5.064033999999999</v>
       </c>
       <c r="O3">
-        <v>0.06698857078019566</v>
+        <v>0.1153172515351477</v>
       </c>
       <c r="P3">
-        <v>0.08327086142239819</v>
+        <v>0.1442195339205683</v>
       </c>
       <c r="Q3">
-        <v>0.2091032479223334</v>
+        <v>0.2368499342139999</v>
       </c>
       <c r="R3">
-        <v>1.254619487534</v>
+        <v>2.131649407926</v>
       </c>
       <c r="S3">
-        <v>0.06698857078019566</v>
+        <v>0.1153172515351477</v>
       </c>
       <c r="T3">
-        <v>0.08327086142239819</v>
+        <v>0.1442195339205683</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,13 +664,13 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.1238755</v>
+        <v>0.140313</v>
       </c>
       <c r="H4">
-        <v>0.247751</v>
+        <v>0.420939</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.485075</v>
+        <v>1.53237</v>
       </c>
       <c r="N4">
-        <v>4.455225</v>
+        <v>4.59711</v>
       </c>
       <c r="O4">
-        <v>0.05893506150515522</v>
+        <v>0.1046845440225605</v>
       </c>
       <c r="P4">
-        <v>0.07325986033675998</v>
+        <v>0.1309219214526569</v>
       </c>
       <c r="Q4">
-        <v>0.1839644081625</v>
+        <v>0.21501143181</v>
       </c>
       <c r="R4">
-        <v>1.103786448975</v>
+        <v>1.93510288629</v>
       </c>
       <c r="S4">
-        <v>0.05893506150515522</v>
+        <v>0.1046845440225605</v>
       </c>
       <c r="T4">
-        <v>0.07325986033675998</v>
+        <v>0.1309219214526569</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,19 +720,19 @@
         <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.1238755</v>
+        <v>0.140313</v>
       </c>
       <c r="H5">
-        <v>0.247751</v>
+        <v>0.420939</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.045007500000001</v>
+        <v>2.512758</v>
       </c>
       <c r="N5">
-        <v>14.090015</v>
+        <v>5.025516</v>
       </c>
       <c r="O5">
-        <v>0.2795804591126911</v>
+        <v>0.1716601900774885</v>
       </c>
       <c r="P5">
-        <v>0.231690325638515</v>
+        <v>0.1431225728797158</v>
       </c>
       <c r="Q5">
-        <v>0.8727038265662501</v>
+        <v>0.352572613254</v>
       </c>
       <c r="R5">
-        <v>3.490815306265</v>
+        <v>2.115435679524</v>
       </c>
       <c r="S5">
-        <v>0.2795804591126911</v>
+        <v>0.1716601900774885</v>
       </c>
       <c r="T5">
-        <v>0.231690325638515</v>
+        <v>0.1431225728797158</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,19 +782,19 @@
         <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.1238755</v>
+        <v>0.140313</v>
       </c>
       <c r="H6">
-        <v>0.247751</v>
+        <v>0.420939</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.785395333333333</v>
+        <v>1.749515666666667</v>
       </c>
       <c r="N6">
-        <v>14.356186</v>
+        <v>5.248547</v>
       </c>
       <c r="O6">
-        <v>0.1899079630971383</v>
+        <v>0.1195189476597205</v>
       </c>
       <c r="P6">
-        <v>0.2360671304655878</v>
+        <v>0.1494743127909878</v>
       </c>
       <c r="Q6">
-        <v>0.5927932396143333</v>
+        <v>0.245479791737</v>
       </c>
       <c r="R6">
-        <v>3.556759437686</v>
+        <v>2.209318125633</v>
       </c>
       <c r="S6">
-        <v>0.1899079630971383</v>
+        <v>0.1195189476597205</v>
       </c>
       <c r="T6">
-        <v>0.2360671304655878</v>
+        <v>0.1494743127909878</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,13 +850,13 @@
         <v>1</v>
       </c>
       <c r="F7">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.1238755</v>
+        <v>0.140313</v>
       </c>
       <c r="H7">
-        <v>0.247751</v>
+        <v>0.420939</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.458521333333333</v>
+        <v>0.867519</v>
       </c>
       <c r="N7">
-        <v>7.375564</v>
+        <v>2.602557</v>
       </c>
       <c r="O7">
-        <v>0.09756618756071996</v>
+        <v>0.05926494968311025</v>
       </c>
       <c r="P7">
-        <v>0.1212806959345117</v>
+        <v>0.0741186882911356</v>
       </c>
       <c r="Q7">
-        <v>0.3045505594273333</v>
+        <v>0.121724193447</v>
       </c>
       <c r="R7">
-        <v>1.827303356564</v>
+        <v>1.095517741023</v>
       </c>
       <c r="S7">
-        <v>0.09756618756071996</v>
+        <v>0.05926494968311025</v>
       </c>
       <c r="T7">
-        <v>0.1212806959345117</v>
+        <v>0.0741186882911356</v>
       </c>
     </row>
   </sheetData>
